--- a/data/trans_bre/P07B_R_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R_2023-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>3.483916128258122</v>
+        <v>3.483916128258119</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.2726560919294011</v>
+        <v>0.2726560919294009</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4135624635104646</v>
+        <v>-0.5492374480696606</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.03347060938027192</v>
+        <v>-0.04269033716814959</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.136376508674075</v>
+        <v>7.357956261918394</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.6814358696621103</v>
+        <v>0.7275667558049485</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.797746279788077</v>
+        <v>0.7121142926319668</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09572967867584883</v>
+        <v>0.08644246905316014</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.238376970177336</v>
+        <v>5.313546006475071</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.035216633251365</v>
+        <v>1.034703429692475</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.99469249093451</v>
+        <v>3.994692490934511</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.9330846366651597</v>
+        <v>0.9330846366651599</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.965910027381661</v>
+        <v>2.246953695793892</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.3560694730133405</v>
+        <v>0.403677048087286</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.918323661336121</v>
+        <v>6.120477617407342</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.761555406649272</v>
+        <v>1.857391394155901</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.0675880420784639</v>
+        <v>-0.06317143556488702</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02478662519432074</v>
+        <v>-0.01280656746117912</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.903346647713345</v>
+        <v>4.03150707171786</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.046740948398218</v>
+        <v>1.136019586172418</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>3.393976235352608</v>
+        <v>3.393976235352607</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.551058192223348</v>
+        <v>0.5510581922233478</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.189484889586306</v>
+        <v>2.169491900930818</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.3128630650683513</v>
+        <v>0.3086461410333886</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.627400144758569</v>
+        <v>4.529703448075972</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.8427241480288528</v>
+        <v>0.8023585505154551</v>
       </c>
     </row>
     <row r="19">
